--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,291 +43,312 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>garbage</t>
-  </si>
-  <si>
-    <t>terrible</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>disappointment</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>di</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>tried</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>parts</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>two</t>
+    <t>little</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -340,100 +361,100 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>book</t>
+    <t>nice</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
+    <t>grandson</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>grandson</t>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>positive</t>
@@ -794,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +823,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -905,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -913,13 +934,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K4">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K5">
-        <v>0.8923076923076924</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1005,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +1034,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1063,49 +1084,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7">
+        <v>0.8172043010752689</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+      <c r="M7">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="L7">
-        <v>78</v>
-      </c>
-      <c r="M7">
-        <v>78</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7619047619047619</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>0.796875</v>
@@ -1163,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,31 +1202,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L9">
+        <v>17</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L9">
-        <v>19</v>
-      </c>
-      <c r="M9">
-        <v>19</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,13 +1234,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7428571428571429</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>0.6981132075471698</v>
@@ -1263,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K11">
-        <v>0.5724533715925395</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L11">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>298</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1313,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7323943661971831</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K12">
-        <v>0.5652173913043478</v>
+        <v>0.5796269727403156</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1355,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,13 +1384,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7150537634408602</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C13">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1381,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K13">
-        <v>0.5435684647302904</v>
+        <v>0.5456431535269709</v>
       </c>
       <c r="L13">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M13">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1405,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1413,13 +1434,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7105263157894737</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1431,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K14">
-        <v>0.4721311475409836</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L14">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M14">
         <v>576</v>
@@ -1452,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>644</v>
@@ -1463,13 +1484,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6959459459459459</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C15">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1481,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K15">
-        <v>0.3855421686746988</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1505,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,13 +1534,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6818181818181818</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1531,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>0.382262996941896</v>
+        <v>0.3730886850152905</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1555,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1563,13 +1584,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6601941747572816</v>
+        <v>0.640625</v>
       </c>
       <c r="C17">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1581,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>0.3584905660377358</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1605,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1613,13 +1634,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6428571428571429</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1631,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K18">
-        <v>0.3583333333333333</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1655,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1663,13 +1684,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6181818181818182</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1681,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K19">
-        <v>0.3272727272727273</v>
+        <v>0.35</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1705,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1713,13 +1734,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6134453781512605</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1731,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K20">
-        <v>0.3220338983050847</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1755,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1763,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.609375</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1781,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K21">
-        <v>0.291005291005291</v>
+        <v>0.2734375</v>
       </c>
       <c r="L21">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1805,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1834,16 +1855,16 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K22">
-        <v>0.2578125</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1855,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1863,13 +1884,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5416666666666666</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1881,31 +1902,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K23">
-        <v>0.2379032258064516</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="M23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <v>60</v>
-      </c>
-      <c r="N23">
-        <v>0.98</v>
-      </c>
-      <c r="O23">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1913,13 +1934,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5333333333333333</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1931,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K24">
-        <v>0.2237762237762238</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1955,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1963,13 +1984,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5304347826086957</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C25">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1981,31 +2002,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K25">
-        <v>0.1973684210526316</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2013,13 +2034,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5185185185185185</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2031,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K26">
-        <v>0.192</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2055,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2063,13 +2084,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5161290322580645</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2081,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K27">
-        <v>0.1881720430107527</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2105,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2113,13 +2134,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4693877551020408</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2131,31 +2152,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K28">
-        <v>0.1839080459770115</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2163,13 +2184,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4566929133858268</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2181,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K29">
-        <v>0.1764705882352941</v>
+        <v>0.1763157894736842</v>
       </c>
       <c r="L29">
         <v>201</v>
       </c>
       <c r="M29">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2213,13 +2234,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4473684210526316</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2231,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K30">
-        <v>0.1746031746031746</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2255,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2263,13 +2284,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4457831325301205</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2281,31 +2302,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K31">
-        <v>0.1379310344827586</v>
+        <v>0.1027308192457737</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2313,13 +2334,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2331,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K32">
-        <v>0.1282051282051282</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L32">
         <v>15</v>
@@ -2355,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2363,13 +2384,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.421875</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2381,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K33">
-        <v>0.1176470588235294</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2405,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2413,13 +2434,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4186046511627907</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2431,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K34">
-        <v>0.1103896103896104</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2455,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>137</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2463,13 +2484,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4074074074074074</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2481,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K35">
-        <v>0.08949416342412451</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2505,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2513,13 +2534,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4028436018957346</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C36">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2531,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K36">
-        <v>0.08913649025069638</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2555,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>327</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2563,13 +2584,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.390625</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2581,31 +2602,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K37">
-        <v>0.08896103896103896</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L37">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1403</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2613,13 +2634,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3828125</v>
+        <v>0.4</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2631,31 +2652,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K38">
-        <v>0.08275862068965517</v>
+        <v>0.05144694533762058</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2663,13 +2684,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3818181818181818</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2681,31 +2702,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K39">
-        <v>0.06501547987616099</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>302</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2713,13 +2734,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3809523809523809</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2731,31 +2752,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K40">
-        <v>0.05503355704697987</v>
+        <v>0.03914590747330961</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N40">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="O40">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>704</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2763,13 +2784,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3793103448275862</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2781,31 +2802,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K41">
-        <v>0.04807692307692308</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>297</v>
+        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2813,13 +2834,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3789473684210526</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2831,31 +2852,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K42">
-        <v>0.02857142857142857</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N42">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="O42">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2863,13 +2884,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3658536585365854</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2881,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2889,13 +2910,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3650793650793651</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2907,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2915,13 +2936,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3518518518518519</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2933,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2941,13 +2962,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3258426966292135</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2959,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2967,13 +2988,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3134328358208955</v>
+        <v>0.3125</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2985,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2993,13 +3014,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2722772277227723</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3011,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3019,13 +3040,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2567567567567567</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3037,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3045,13 +3066,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2551020408163265</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3063,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3071,7 +3092,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2463768115942029</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -3089,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3097,13 +3118,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2463768115942029</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3115,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3123,13 +3144,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2459016393442623</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3141,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3149,13 +3170,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.24</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3167,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3175,13 +3196,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3193,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3201,13 +3222,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2307692307692308</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3219,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3227,13 +3248,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2216494845360825</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C57">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3245,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3253,13 +3274,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3271,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>157</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3279,13 +3300,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.211864406779661</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3297,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3305,13 +3326,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2065217391304348</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C60">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3323,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>219</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3331,13 +3352,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2037037037037037</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3349,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3357,13 +3378,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1857142857142857</v>
+        <v>0.21</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3375,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3383,13 +3404,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1835443037974684</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C63">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3401,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>258</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3409,25 +3430,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.181547619047619</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C64">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D64">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E64">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>550</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3435,25 +3456,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1809523809523809</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C65">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>258</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3461,25 +3482,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.178343949044586</v>
+        <v>0.187221396731055</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>129</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3487,13 +3508,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1728971962616822</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C67">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D67">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3505,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3513,25 +3534,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1611479028697572</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C68">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E68">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>380</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3539,13 +3560,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1584699453551913</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3557,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3565,13 +3586,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.15625</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3583,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3591,13 +3612,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1527377521613833</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C71">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D71">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E71">
         <v>0.02</v>
@@ -3609,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3617,25 +3638,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1518324607329843</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C72">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>162</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3643,25 +3664,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1371428571428571</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>151</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3669,25 +3690,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1336898395721925</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3695,25 +3716,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1240601503759398</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>233</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3721,13 +3742,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1168831168831169</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3739,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>136</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3747,25 +3768,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1098901098901099</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C77">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3773,25 +3794,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1052631578947368</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>221</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3799,25 +3820,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1041666666666667</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3825,25 +3846,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.09411764705882353</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E80">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3851,25 +3872,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.08620689655172414</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E81">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3877,25 +3898,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.08205128205128205</v>
+        <v>0.1171875</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>179</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3903,7 +3924,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07885304659498207</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C83">
         <v>22</v>
@@ -3921,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>257</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3929,25 +3950,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.07589285714285714</v>
+        <v>0.109375</v>
       </c>
       <c r="C84">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E84">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>414</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3955,25 +3976,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.07323943661971831</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C85">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>329</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3981,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.07296849087893864</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C86">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F86">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>559</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4007,25 +4028,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.06091370558375635</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C87">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>740</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4033,25 +4054,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05620608899297424</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D88">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E88">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>403</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4059,25 +4080,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.05359877488514548</v>
+        <v>0.09295774647887324</v>
       </c>
       <c r="C89">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D89">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E89">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>618</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4085,25 +4106,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05079365079365079</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>299</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4111,25 +4132,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.04205607476635514</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C91">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>410</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4137,25 +4158,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.03592814371257485</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E92">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="F92">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>483</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4163,25 +4184,207 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.03401360544217687</v>
+        <v>0.075</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D93">
         <v>21</v>
       </c>
       <c r="E93">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>426</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.07260726072607261</v>
+      </c>
+      <c r="C94">
+        <v>44</v>
+      </c>
+      <c r="D94">
+        <v>46</v>
+      </c>
+      <c r="E94">
+        <v>0.04</v>
+      </c>
+      <c r="F94">
+        <v>0.96</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95">
+        <v>23</v>
+      </c>
+      <c r="E95">
+        <v>0.09</v>
+      </c>
+      <c r="F95">
+        <v>0.91</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.05979643765903308</v>
+      </c>
+      <c r="C96">
+        <v>47</v>
+      </c>
+      <c r="D96">
+        <v>55</v>
+      </c>
+      <c r="E96">
+        <v>0.15</v>
+      </c>
+      <c r="F96">
+        <v>0.85</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.05053598774885146</v>
+      </c>
+      <c r="C97">
+        <v>33</v>
+      </c>
+      <c r="D97">
+        <v>35</v>
+      </c>
+      <c r="E97">
+        <v>0.06</v>
+      </c>
+      <c r="F97">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.04460093896713615</v>
+      </c>
+      <c r="C98">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>22</v>
+      </c>
+      <c r="E98">
+        <v>0.14</v>
+      </c>
+      <c r="F98">
+        <v>0.86</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.04205607476635514</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>24</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99">
+        <v>0.75</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.03784860557768924</v>
+      </c>
+      <c r="C100">
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>21</v>
+      </c>
+      <c r="E100">
+        <v>0.1</v>
+      </c>
+      <c r="F100">
+        <v>0.9</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
